--- a/biology/Botanique/Echinopsis_atacamensis/Echinopsis_atacamensis.xlsx
+++ b/biology/Botanique/Echinopsis_atacamensis/Echinopsis_atacamensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinopsis atacamensis (synonyme: Trichocereus pasacana) est une espèce de plantes à fleurs de la famille des Cactaceae (les cactus) originaire d'Amérique du Sud (nord de l'Argentine), où il est appelé cardón.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante endémique des régions de Catamarca, Jujuy, La Rioja, Salta et San Juan en Argentine ; de Oruro, Potosí et Tarija en Bolivie ; de San Pedro de Atacama au Chili.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cactus est une plante vivace qui présente des tiges colonnaires vertes qui peuvent atteindre 10 mètres de hauteur. Ses aiguilles, nombreuses, mesurent de 4 à 14 centimètres de longueur.
 Ses fleurs sont blanches.
@@ -574,7 +590,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois du cardón est couramment utilisé dans le nord-ouest argentin dans la construction de bâtiments (église de Cachi). On en fait aussi des portes et des meubles.
 </t>
